--- a/truckData.xlsx
+++ b/truckData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\trucking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C71E5C-CED2-4593-A846-1E711D749CA9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1456DC2D-D3EE-420E-90E4-33A0A6FF2E06}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020" activeTab="3" xr2:uid="{AFE0D79C-305F-40F6-8638-6F0E65358259}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020" xr2:uid="{AFE0D79C-305F-40F6-8638-6F0E65358259}"/>
   </bookViews>
   <sheets>
     <sheet name="accounts" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="103">
   <si>
     <t>accountNumber</t>
   </si>
@@ -65,57 +65,15 @@
     <t>type</t>
   </si>
   <si>
-    <t>docurneen0@flavors.me</t>
-  </si>
-  <si>
-    <t>If9KdB</t>
-  </si>
-  <si>
-    <t>mlemon1@fotki.com</t>
-  </si>
-  <si>
-    <t>fywCN7CmD8H</t>
-  </si>
-  <si>
-    <t>vsteen2@buzzfeed.com</t>
-  </si>
-  <si>
-    <t>YVpSVom8</t>
-  </si>
-  <si>
-    <t>FjqSBoIAkEi</t>
-  </si>
-  <si>
     <t>kyesinin4@microsoft.com</t>
   </si>
   <si>
-    <t>MyuzPEP</t>
-  </si>
-  <si>
     <t>hbarmby5@jiathis.com</t>
   </si>
   <si>
-    <t>GoGe6i</t>
-  </si>
-  <si>
-    <t>pbalthasar6@ox.ac.uk</t>
-  </si>
-  <si>
-    <t>aeDAhDO2</t>
-  </si>
-  <si>
-    <t>abeton7@accuweather.com</t>
-  </si>
-  <si>
-    <t>eip9vsfWD</t>
-  </si>
-  <si>
     <t>athickpenny8@xrea.com</t>
   </si>
   <si>
-    <t>QENnAGJrkR0</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -131,18 +89,9 @@
     <t>Dongxiang</t>
   </si>
   <si>
-    <t>dcyseley0</t>
-  </si>
-  <si>
     <t>Salawu</t>
   </si>
   <si>
-    <t>cgrim1</t>
-  </si>
-  <si>
-    <t>mvellacott2</t>
-  </si>
-  <si>
     <t>New York</t>
   </si>
   <si>
@@ -212,9 +161,6 @@
     <t>Tennessee</t>
   </si>
   <si>
-    <t>JZ9g0Q</t>
-  </si>
-  <si>
     <t>Lynea</t>
   </si>
   <si>
@@ -227,9 +173,6 @@
     <t>District of Columbia</t>
   </si>
   <si>
-    <t>ADL1wa2oT</t>
-  </si>
-  <si>
     <t>Alan</t>
   </si>
   <si>
@@ -372,16 +315,57 @@
   </si>
   <si>
     <t>code</t>
+  </si>
+  <si>
+    <t>wangEnt@wang.com</t>
+  </si>
+  <si>
+    <t>trucker</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>root@root.com</t>
+  </si>
+  <si>
+    <t>admin@ri.com</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>client@weyland.com</t>
+  </si>
+  <si>
+    <t>knight@ares.com</t>
+  </si>
+  <si>
+    <t>wangEnt</t>
+  </si>
+  <si>
+    <t>Yutani</t>
+  </si>
+  <si>
+    <t>Ares</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -404,14 +388,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -726,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1348D85-B7F6-4807-8A08-EAC290C438A3}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -756,42 +743,42 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
+      <c r="B2" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
+      <c r="B3" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
+      <c r="B4" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -799,13 +786,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -813,13 +800,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -827,41 +814,41 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
+      <c r="B8" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>21</v>
+      <c r="B9" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -869,16 +856,23 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{657E3611-8881-48D2-8A69-7DDB648D53FD}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{B749347B-2F30-4DD7-A45F-D4E89CA5EFBF}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{E99DF042-7E89-4BED-BD4A-7500DCDA53A6}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{D418D416-3808-4F88-806B-802D07BFD3E3}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{69914FA4-0A8C-4EFD-B4B6-03534CE805BE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -904,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -918,13 +912,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -932,13 +926,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -946,13 +940,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -965,7 +959,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -999,13 +993,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1016,13 +1010,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1033,13 +1027,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1054,7 +1048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA16F55E-6DD7-48BD-80A6-52432125ECF2}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1065,7 +1059,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1107,6 +1101,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="3" max="3" width="19.6328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.08984375" bestFit="1" customWidth="1"/>
@@ -1114,7 +1109,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1123,31 +1118,31 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="G1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="H1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="J1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="K1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="L1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -1158,13 +1153,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="F2">
         <v>2038</v>
@@ -1182,7 +1177,7 @@
         <v>43398</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="L2" s="1">
         <v>43403</v>
@@ -1196,13 +1191,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F3">
         <v>2202</v>
@@ -1220,7 +1215,7 @@
         <v>43201</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="L3" s="1">
         <v>43205</v>
@@ -1234,13 +1229,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="F4">
         <v>1175</v>
@@ -1258,7 +1253,7 @@
         <v>43056</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="L4" s="1">
         <v>43059</v>
@@ -1272,13 +1267,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F5">
         <v>1659</v>
@@ -1296,7 +1291,7 @@
         <v>43411</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="L5" s="1">
         <v>43416</v>
@@ -1310,13 +1305,13 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="F6">
         <v>574</v>
@@ -1334,7 +1329,7 @@
         <v>43215</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="L6" s="1">
         <v>43220</v>
@@ -1370,7 +1365,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1379,28 +1374,28 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="G1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="H1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="J1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="K1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -1411,13 +1406,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="F2">
         <v>619</v>
@@ -1435,7 +1430,7 @@
         <v>43065</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -1446,13 +1441,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="F3">
         <v>2399</v>
@@ -1470,7 +1465,7 @@
         <v>43258</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -1481,13 +1476,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="F4">
         <v>1960</v>
@@ -1505,7 +1500,7 @@
         <v>43415</v>
       </c>
       <c r="K4" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -1516,13 +1511,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F5">
         <v>387</v>
@@ -1540,7 +1535,7 @@
         <v>43363</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -1551,13 +1546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="F6">
         <v>1884</v>
@@ -1575,7 +1570,7 @@
         <v>43067</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1607,7 +1602,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1616,25 +1611,25 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="G1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="H1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="J1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -1645,13 +1640,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F2">
         <v>344</v>
@@ -1677,13 +1672,13 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="F3">
         <v>1084</v>
@@ -1709,13 +1704,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="F4">
         <v>573</v>
@@ -1741,13 +1736,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="F5">
         <v>702</v>
@@ -1773,13 +1768,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F6">
         <v>554</v>
@@ -1822,7 +1817,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1841,7 +1836,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1850,25 +1845,25 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="G1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="H1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="J1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -1876,13 +1871,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F2">
         <v>344</v>
@@ -1905,13 +1900,13 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="F3">
         <v>1084</v>
@@ -1934,13 +1929,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="F4">
         <v>573</v>
@@ -1963,13 +1958,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="F5">
         <v>702</v>
@@ -1992,13 +1987,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F6">
         <v>554</v>
@@ -2023,10 +2018,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8F0486-EDBC-4B38-AB8C-ACF7BA6C68B9}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2036,99 +2031,86 @@
     <col min="3" max="3" width="8.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
         <v>47</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3">
+        <v>39</v>
+      </c>
+      <c r="F3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4">
+        <v>43</v>
+      </c>
+      <c r="F4">
         <v>6</v>
       </c>
     </row>

--- a/truckData.xlsx
+++ b/truckData.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\trucking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1456DC2D-D3EE-420E-90E4-33A0A6FF2E06}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D8D969-904E-4E4D-9A27-D6A8B994140A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020" xr2:uid="{AFE0D79C-305F-40F6-8638-6F0E65358259}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020" activeTab="6" xr2:uid="{AFE0D79C-305F-40F6-8638-6F0E65358259}"/>
   </bookViews>
   <sheets>
     <sheet name="accounts" sheetId="1" r:id="rId1"/>
     <sheet name="admin" sheetId="3" r:id="rId2"/>
     <sheet name="client" sheetId="2" r:id="rId3"/>
-    <sheet name="clientCodes" sheetId="9" r:id="rId4"/>
+    <sheet name="trucker" sheetId="4" r:id="rId4"/>
     <sheet name="fufillments" sheetId="7" r:id="rId5"/>
     <sheet name="inTransit" sheetId="6" r:id="rId6"/>
     <sheet name="listing" sheetId="5" r:id="rId7"/>
     <sheet name="needApproval" sheetId="8" r:id="rId8"/>
-    <sheet name="trucker" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="108">
   <si>
     <t>accountNumber</t>
   </si>
@@ -95,42 +94,21 @@
     <t>New York</t>
   </si>
   <si>
-    <t>employerID</t>
-  </si>
-  <si>
     <t>firstName</t>
   </si>
   <si>
     <t>lastName</t>
   </si>
   <si>
-    <t>Fritsch-Gulgowski</t>
-  </si>
-  <si>
     <t>Xiaqiao</t>
   </si>
   <si>
-    <t>cgoggins0</t>
-  </si>
-  <si>
-    <t>Ratke-Rowe</t>
-  </si>
-  <si>
     <t>Kolkhozobod</t>
   </si>
   <si>
-    <t>kgoodfellow1</t>
-  </si>
-  <si>
-    <t>Jones Group</t>
-  </si>
-  <si>
     <t>Verkhnyaya Tura</t>
   </si>
   <si>
-    <t>tstarling2</t>
-  </si>
-  <si>
     <t>CDL</t>
   </si>
   <si>
@@ -314,9 +292,6 @@
     <t>dateFulfilled</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
     <t>wangEnt@wang.com</t>
   </si>
   <si>
@@ -348,6 +323,45 @@
   </si>
   <si>
     <t>Ares</t>
+  </si>
+  <si>
+    <t>adminID</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>Masters</t>
+  </si>
+  <si>
+    <t>modID</t>
+  </si>
+  <si>
+    <t>transitID</t>
+  </si>
+  <si>
+    <t>fufillID</t>
+  </si>
+  <si>
+    <t>dateFufilled</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>IT</t>
   </si>
 </sst>
 </file>
@@ -713,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1348D85-B7F6-4807-8A08-EAC290C438A3}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -744,10 +758,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -758,10 +772,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -772,10 +786,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -789,7 +803,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -803,7 +817,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -817,7 +831,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -828,10 +842,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -842,10 +856,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -859,7 +873,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -879,211 +893,340 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E722163-875B-481E-A2DB-7BF9AFD7874B}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
+      <c r="E4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{772B720C-D2D3-423B-81D4-84983BB70754}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{48E90108-DA30-4BEA-9FD7-FF0AD286AD20}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50188CB3-4D54-44E1-80BE-815E49AA6636}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>87</v>
+      <c r="B2" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>88</v>
+      <c r="B3" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
         <v>89</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
+      <c r="F4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{EE3A1F74-E6AD-40C4-BD2E-7122A96187A6}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{BD901D30-BF28-4139-A44A-6B7D615885BB}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{54989CAC-365E-4165-A4F0-80B3E6D516ED}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA16F55E-6DD7-48BD-80A6-52432125ECF2}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8F0486-EDBC-4B38-AB8C-ACF7BA6C68B9}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>333</v>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1096,7 +1239,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection sqref="A1:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1109,7 +1252,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1118,31 +1261,31 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -1153,13 +1296,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <v>2038</v>
@@ -1177,7 +1320,7 @@
         <v>43398</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L2" s="1">
         <v>43403</v>
@@ -1191,13 +1334,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F3">
         <v>2202</v>
@@ -1215,7 +1358,7 @@
         <v>43201</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L3" s="1">
         <v>43205</v>
@@ -1229,13 +1372,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F4">
         <v>1175</v>
@@ -1253,7 +1396,7 @@
         <v>43056</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L4" s="1">
         <v>43059</v>
@@ -1267,13 +1410,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F5">
         <v>1659</v>
@@ -1291,7 +1434,7 @@
         <v>43411</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="L5" s="1">
         <v>43416</v>
@@ -1305,13 +1448,13 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F6">
         <v>574</v>
@@ -1329,7 +1472,7 @@
         <v>43215</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L6" s="1">
         <v>43220</v>
@@ -1345,12 +1488,12 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection sqref="A1:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
@@ -1365,7 +1508,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1374,28 +1517,28 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -1406,13 +1549,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F2">
         <v>619</v>
@@ -1430,7 +1573,7 @@
         <v>43065</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -1441,13 +1584,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>2399</v>
@@ -1465,7 +1608,7 @@
         <v>43258</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -1476,13 +1619,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F4">
         <v>1960</v>
@@ -1500,7 +1643,7 @@
         <v>43415</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -1511,13 +1654,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F5">
         <v>387</v>
@@ -1535,7 +1678,7 @@
         <v>43363</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -1546,13 +1689,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F6">
         <v>1884</v>
@@ -1570,7 +1713,7 @@
         <v>43067</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1580,10 +1723,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E400CE-014B-41D6-A48F-C56A66857809}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1598,11 +1741,13 @@
     <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.36328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1611,28 +1756,37 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1640,13 +1794,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F2">
         <v>344</v>
@@ -1663,8 +1817,11 @@
       <c r="J2" s="1">
         <v>43234</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="M2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1672,13 +1829,13 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F3">
         <v>1084</v>
@@ -1695,8 +1852,11 @@
       <c r="J3" s="1">
         <v>43241</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="M3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1704,13 +1864,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F4">
         <v>573</v>
@@ -1727,8 +1887,11 @@
       <c r="J4" s="1">
         <v>43076</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="M4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1736,13 +1899,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F5">
         <v>702</v>
@@ -1759,8 +1922,11 @@
       <c r="J5" s="1">
         <v>43347</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="M5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1768,13 +1934,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F6">
         <v>554</v>
@@ -1791,21 +1957,579 @@
       <c r="J6" s="1">
         <v>43095</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J11" s="1"/>
+      <c r="M6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7">
+        <v>619</v>
+      </c>
+      <c r="G7">
+        <v>2999</v>
+      </c>
+      <c r="H7">
+        <v>4.8449111470113086</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+      <c r="J7" s="1">
+        <v>43065</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>2399</v>
+      </c>
+      <c r="G8">
+        <v>4583</v>
+      </c>
+      <c r="H8">
+        <v>1.9103793247186327</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1">
+        <v>43258</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9">
+        <v>1960</v>
+      </c>
+      <c r="G9">
+        <v>2421</v>
+      </c>
+      <c r="H9">
+        <v>1.2352040816326531</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9" s="1">
+        <v>43415</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10">
+        <v>387</v>
+      </c>
+      <c r="G10">
+        <v>3873</v>
+      </c>
+      <c r="H10">
+        <v>10.007751937984496</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10" s="1">
+        <v>43363</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11">
+        <v>1884</v>
+      </c>
+      <c r="G11">
+        <v>1234</v>
+      </c>
+      <c r="H11">
+        <v>0.65498938428874731</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11" s="1">
+        <v>43067</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12">
+        <v>344</v>
+      </c>
+      <c r="G12">
+        <v>1000</v>
+      </c>
+      <c r="H12">
+        <v>2.9069767441860463</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>43234</v>
+      </c>
+      <c r="M12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13">
+        <v>1084</v>
+      </c>
+      <c r="G13">
+        <v>1500</v>
+      </c>
+      <c r="H13">
+        <v>1.3837638376383763</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>43241</v>
+      </c>
+      <c r="M13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14">
+        <v>573</v>
+      </c>
+      <c r="G14">
+        <v>2390</v>
+      </c>
+      <c r="H14">
+        <v>4.1710296684118671</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14" s="1">
+        <v>43076</v>
+      </c>
+      <c r="M14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15">
+        <v>702</v>
+      </c>
+      <c r="G15">
+        <v>2222</v>
+      </c>
+      <c r="H15">
+        <v>3.1652421652421654</v>
+      </c>
+      <c r="I15">
+        <v>13</v>
+      </c>
+      <c r="J15" s="1">
+        <v>43347</v>
+      </c>
+      <c r="M15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16">
+        <v>554</v>
+      </c>
+      <c r="G16">
+        <v>1256</v>
+      </c>
+      <c r="H16">
+        <v>2.267148014440433</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>43095</v>
+      </c>
+      <c r="M16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17">
+        <v>2038</v>
+      </c>
+      <c r="G17">
+        <v>498</v>
+      </c>
+      <c r="H17">
+        <v>0.24435721295387636</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17" s="1">
+        <v>43398</v>
+      </c>
+      <c r="K17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="1">
+        <v>43403</v>
+      </c>
+      <c r="M17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18">
+        <v>2202</v>
+      </c>
+      <c r="G18">
+        <v>1543</v>
+      </c>
+      <c r="H18">
+        <v>0.70072661217075383</v>
+      </c>
+      <c r="I18">
+        <v>18</v>
+      </c>
+      <c r="J18" s="1">
+        <v>43201</v>
+      </c>
+      <c r="K18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="1">
+        <v>43205</v>
+      </c>
+      <c r="M18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19">
+        <v>1175</v>
+      </c>
+      <c r="G19">
+        <v>252</v>
+      </c>
+      <c r="H19">
+        <v>0.21446808510638299</v>
+      </c>
+      <c r="I19">
+        <v>7</v>
+      </c>
+      <c r="J19" s="1">
+        <v>43056</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="1">
+        <v>43059</v>
+      </c>
+      <c r="M19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20">
+        <v>1659</v>
+      </c>
+      <c r="G20">
+        <v>286</v>
+      </c>
+      <c r="H20">
+        <v>0.1723930078360458</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20" s="1">
+        <v>43411</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="1">
+        <v>43416</v>
+      </c>
+      <c r="M20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21">
+        <v>574</v>
+      </c>
+      <c r="G21">
+        <v>4887</v>
+      </c>
+      <c r="H21">
+        <v>8.5139372822299659</v>
+      </c>
+      <c r="I21">
+        <v>18</v>
+      </c>
+      <c r="J21" s="1">
+        <v>43215</v>
+      </c>
+      <c r="K21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="1">
+        <v>43220</v>
+      </c>
+      <c r="M21" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1817,12 +2541,11 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
@@ -1836,7 +2559,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1845,39 +2568,42 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F2">
         <v>344</v>
@@ -1896,17 +2622,20 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F3">
         <v>1084</v>
@@ -1925,17 +2654,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F4">
         <v>573</v>
@@ -1954,17 +2686,20 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F5">
         <v>702</v>
@@ -1983,17 +2718,20 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F6">
         <v>554</v>
@@ -2009,109 +2747,6 @@
       </c>
       <c r="J6" s="1">
         <v>43095</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8F0486-EDBC-4B38-AB8C-ACF7BA6C68B9}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
